--- a/clustering/distance_clusters1.xlsx
+++ b/clustering/distance_clusters1.xlsx
@@ -27,16 +27,16 @@
     <t>G-N</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>N</t>
   </si>
   <si>
-    <t>N</t>
+    <t>R-FR</t>
+  </si>
+  <si>
+    <t>G-FR</t>
   </si>
 </sst>
 </file>
@@ -409,27 +409,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>6.7022256395486854E-2</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2.5440839214032942</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.90323111431197789</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0.1141251747218118</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0.35555481040209541</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.41374470271923153</v>
